--- a/data/xls/SampleTest.xlsx
+++ b/data/xls/SampleTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manasmohanty/Personal/Workspace/ai-ml/parallel-processing/data/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC57448D-260E-AA47-8CF0-3874BF9D204B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAA1F66-50E2-6640-8838-8C0D02CB5142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{A898BA53-A46D-3744-8A88-CA892A077153}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -462,7 +474,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,10 +544,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C209CB5F-24F9-C34C-8496-56F92B9DB566}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,6 +589,26 @@
         <v>16</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
